--- a/IMPAcTB_Spleen_Base/IMPACTB_CFU_Base_AllDays_Spleen.xlsx
+++ b/IMPAcTB_Spleen_Base/IMPACTB_CFU_Base_AllDays_Spleen.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Spleen_Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C003C48-2F1E-7E41-9897-9EF12D60FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618D27C-9F4D-274E-948F-00DA66D4ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1420" windowWidth="26440" windowHeight="15440" activeTab="1" xr2:uid="{A976FC8F-E446-1E4E-83CA-5ABA74A0AB82}"/>
+    <workbookView xWindow="3900" yWindow="1420" windowWidth="26440" windowHeight="15440" xr2:uid="{A976FC8F-E446-1E4E-83CA-5ABA74A0AB82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Spleen" sheetId="1" r:id="rId2"/>
+    <sheet name="metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="spleen" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -150,7 +150,7 @@
     <t>volume_plated_ml</t>
   </si>
   <si>
-    <t>lung</t>
+    <t>spleen</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036116DC-3D77-7C48-AC47-8ACB60D684C1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF373ED9-1D0F-5240-92BB-43418F72611B}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
